--- a/data/trans_dic/P36BPD04_R1_2023-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P36BPD04_R1_2023-Edad-trans_dic.xlsx
@@ -564,13 +564,13 @@
         </is>
       </c>
       <c r="C4" s="5" t="n">
-        <v>0.935738080945715</v>
+        <v>0.9357380809457149</v>
       </c>
       <c r="D4" s="5" t="n">
-        <v>0.9071230023701695</v>
+        <v>0.9071230023701697</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>0.922271586321427</v>
+        <v>0.9222715863214268</v>
       </c>
     </row>
     <row r="5">
@@ -581,13 +581,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.8868202239473832</v>
+        <v>0.8829414277118495</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.8606153200543356</v>
+        <v>0.8587552635932255</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.8881390921452199</v>
+        <v>0.8874393758753948</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.967739488242733</v>
+        <v>0.9669558943137624</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.9427847879584572</v>
+        <v>0.9467697248915834</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.9501423041595592</v>
+        <v>0.9467697852639058</v>
       </c>
     </row>
     <row r="7">
@@ -619,13 +619,13 @@
         </is>
       </c>
       <c r="C7" s="5" t="n">
-        <v>0.899130952490067</v>
+        <v>0.8991309524900671</v>
       </c>
       <c r="D7" s="5" t="n">
         <v>0.926763436212153</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.9132889765873076</v>
+        <v>0.9132889765873075</v>
       </c>
     </row>
     <row r="8">
@@ -636,13 +636,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.8568982413351532</v>
+        <v>0.8509012656651872</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.9009000266297953</v>
+        <v>0.8994890677500165</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.8870435896479486</v>
+        <v>0.8908733538319915</v>
       </c>
     </row>
     <row r="9">
@@ -653,13 +653,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.9309281667047762</v>
+        <v>0.9290764666831464</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.9493749344676777</v>
+        <v>0.949705021538722</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.9331639882757681</v>
+        <v>0.9337722169295652</v>
       </c>
     </row>
     <row r="10">
@@ -674,7 +674,7 @@
         </is>
       </c>
       <c r="C10" s="5" t="n">
-        <v>0.9455518820879604</v>
+        <v>0.94555188208796</v>
       </c>
       <c r="D10" s="5" t="n">
         <v>0.9455089797200225</v>
@@ -691,13 +691,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.9210463937311836</v>
+        <v>0.9237517224818785</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.9280937997976596</v>
+        <v>0.9279377425196779</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.9311311781746452</v>
+        <v>0.9318375362942639</v>
       </c>
     </row>
     <row r="12">
@@ -708,13 +708,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.9635956522334654</v>
+        <v>0.9634009088580479</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.9595385223850764</v>
+        <v>0.9599875806479221</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.9571037290567259</v>
+        <v>0.9565372077094616</v>
       </c>
     </row>
     <row r="13">
@@ -729,13 +729,13 @@
         </is>
       </c>
       <c r="C13" s="5" t="n">
-        <v>0.9298869925568519</v>
+        <v>0.9298869925568518</v>
       </c>
       <c r="D13" s="5" t="n">
-        <v>0.9420941755634153</v>
+        <v>0.9420941755634152</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.9361406441792085</v>
+        <v>0.9361406441792083</v>
       </c>
     </row>
     <row r="14">
@@ -746,13 +746,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.9087953283261103</v>
+        <v>0.9079871157009654</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.9268227882148211</v>
+        <v>0.9256568964097528</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.9237190551683752</v>
+        <v>0.9235737884430618</v>
       </c>
     </row>
     <row r="15">
@@ -763,13 +763,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.9487876346703376</v>
+        <v>0.9472033718365589</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.9543300110132391</v>
+        <v>0.9536215197739851</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.948503032238332</v>
+        <v>0.9470875333283687</v>
       </c>
     </row>
     <row r="16">
@@ -784,10 +784,10 @@
         </is>
       </c>
       <c r="C16" s="5" t="n">
-        <v>0.9513519142180367</v>
+        <v>0.9513519142180363</v>
       </c>
       <c r="D16" s="5" t="n">
-        <v>0.9513871523903974</v>
+        <v>0.9513871523903979</v>
       </c>
       <c r="E16" s="5" t="n">
         <v>0.9513695340543198</v>
@@ -801,13 +801,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.9338231648733332</v>
+        <v>0.9317678398715483</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.9366994656644325</v>
+        <v>0.9357039547673922</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.9403984289740828</v>
+        <v>0.9396690544076495</v>
       </c>
     </row>
     <row r="18">
@@ -818,13 +818,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.9676684032893343</v>
+        <v>0.9640973099885485</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.9646781952667243</v>
+        <v>0.9634974166819797</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.9610944512318931</v>
+        <v>0.961965136644225</v>
       </c>
     </row>
     <row r="19">
@@ -839,13 +839,13 @@
         </is>
       </c>
       <c r="C19" s="5" t="n">
-        <v>0.9544199593780327</v>
+        <v>0.9544199593780328</v>
       </c>
       <c r="D19" s="5" t="n">
-        <v>0.9708214412586937</v>
+        <v>0.9708214412586939</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>0.9629159090178586</v>
+        <v>0.9629159090178588</v>
       </c>
     </row>
     <row r="20">
@@ -856,13 +856,13 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.9340038094079277</v>
+        <v>0.9353714642578397</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.9556549160757182</v>
+        <v>0.9568361175069753</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.9510412353241237</v>
+        <v>0.9493448166826651</v>
       </c>
     </row>
     <row r="21">
@@ -873,13 +873,13 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.9711208703997717</v>
+        <v>0.969350799267209</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.980669258659951</v>
+        <v>0.9816386668817981</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.9726820420750035</v>
+        <v>0.9721381990762591</v>
       </c>
     </row>
     <row r="22">
@@ -894,13 +894,13 @@
         </is>
       </c>
       <c r="C22" s="5" t="n">
-        <v>0.9841344209997305</v>
+        <v>0.9841344209997303</v>
       </c>
       <c r="D22" s="5" t="n">
         <v>0.9745401043369606</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.9783832247556931</v>
+        <v>0.9783832247556929</v>
       </c>
     </row>
     <row r="23">
@@ -911,13 +911,13 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.9677629334487124</v>
+        <v>0.9695490071328861</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.9605806443409921</v>
+        <v>0.9606914906819018</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.9687404094362524</v>
+        <v>0.969410987841646</v>
       </c>
     </row>
     <row r="24">
@@ -928,13 +928,13 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.9936011092642412</v>
+        <v>0.99324825170563</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.9840866867346304</v>
+        <v>0.9838039992074692</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.9855848247096857</v>
+        <v>0.9854530418351496</v>
       </c>
     </row>
     <row r="25">
@@ -955,7 +955,7 @@
         <v>0.9461265344235985</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>0.9433674108243048</v>
+        <v>0.9433674108243046</v>
       </c>
     </row>
     <row r="26">
@@ -966,13 +966,13 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.9294514683340921</v>
+        <v>0.9307517778088427</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.9389872714240129</v>
+        <v>0.9378624796984617</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.9368477473287684</v>
+        <v>0.9370962164546754</v>
       </c>
     </row>
     <row r="27">
@@ -983,13 +983,13 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.9494763956880001</v>
+        <v>0.9487727672555848</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.9525629716204354</v>
+        <v>0.9525249099209987</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.9492516477196449</v>
+        <v>0.9488104520189142</v>
       </c>
     </row>
     <row r="28">
@@ -1134,13 +1134,13 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>361639</v>
+        <v>360057</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>311983</v>
+        <v>311309</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>684138</v>
+        <v>683599</v>
       </c>
     </row>
     <row r="7">
@@ -1151,13 +1151,13 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>394637</v>
+        <v>394318</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>341771</v>
+        <v>343215</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>731899</v>
+        <v>729301</v>
       </c>
     </row>
     <row r="8">
@@ -1206,13 +1206,13 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>408646</v>
+        <v>405786</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>451426</v>
+        <v>450719</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>867505</v>
+        <v>871250</v>
       </c>
     </row>
     <row r="11">
@@ -1223,13 +1223,13 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>443950</v>
+        <v>443067</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>475716</v>
+        <v>475881</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>912609</v>
+        <v>913204</v>
       </c>
     </row>
     <row r="12">
@@ -1278,13 +1278,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>570790</v>
+        <v>572466</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>577403</v>
+        <v>577306</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>1156333</v>
+        <v>1157210</v>
       </c>
     </row>
     <row r="15">
@@ -1295,13 +1295,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>597159</v>
+        <v>597038</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>596966</v>
+        <v>597246</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>1188587</v>
+        <v>1187883</v>
       </c>
     </row>
     <row r="16">
@@ -1350,13 +1350,13 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>636717</v>
+        <v>636151</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>682082</v>
+        <v>681224</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>1326971</v>
+        <v>1326763</v>
       </c>
     </row>
     <row r="19">
@@ -1367,13 +1367,13 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>664737</v>
+        <v>663627</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>702326</v>
+        <v>701804</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>1362575</v>
+        <v>1360541</v>
       </c>
     </row>
     <row r="20">
@@ -1422,13 +1422,13 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>568012</v>
+        <v>566762</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>569809</v>
+        <v>569204</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>1144071</v>
+        <v>1143184</v>
       </c>
     </row>
     <row r="23">
@@ -1439,13 +1439,13 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>588599</v>
+        <v>586427</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>586829</v>
+        <v>586111</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>1169249</v>
+        <v>1170309</v>
       </c>
     </row>
     <row r="24">
@@ -1494,13 +1494,13 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>380214</v>
+        <v>380771</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>418082</v>
+        <v>418599</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>803213</v>
+        <v>801781</v>
       </c>
     </row>
     <row r="27">
@@ -1511,13 +1511,13 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>395324</v>
+        <v>394603</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>429025</v>
+        <v>429449</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>821490</v>
+        <v>821031</v>
       </c>
     </row>
     <row r="28">
@@ -1566,13 +1566,13 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>300198</v>
+        <v>300752</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>445910</v>
+        <v>445962</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>750199</v>
+        <v>750719</v>
       </c>
     </row>
     <row r="31">
@@ -1583,13 +1583,13 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>308213</v>
+        <v>308104</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>456822</v>
+        <v>456691</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>763244</v>
+        <v>763142</v>
       </c>
     </row>
     <row r="32">
@@ -1638,13 +1638,13 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>3281486</v>
+        <v>3286077</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>3503998</v>
+        <v>3499801</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>6803613</v>
+        <v>6805418</v>
       </c>
     </row>
     <row r="35">
@@ -1655,13 +1655,13 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>3352185</v>
+        <v>3349701</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>3554658</v>
+        <v>3554516</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>6893693</v>
+        <v>6890489</v>
       </c>
     </row>
     <row r="36">
